--- a/media/testSet2/mergedFile.xlsx
+++ b/media/testSet2/mergedFile.xlsx
@@ -7,14 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="All Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Side" sheetId="2" r:id="rId2"/>
+    <sheet name="GST portal" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4661" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5367" uniqueCount="1307">
   <si>
     <t>Particulars</t>
   </si>
@@ -44226,4 +44228,9087 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2">
+        <v>41040</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>3693.6</v>
+      </c>
+      <c r="H2">
+        <v>3693.6</v>
+      </c>
+      <c r="I2">
+        <v>7387.2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3">
+        <v>28327.5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2549.48</v>
+      </c>
+      <c r="H3">
+        <v>2549.48</v>
+      </c>
+      <c r="I3">
+        <v>5098.96</v>
+      </c>
+      <c r="J3" t="s">
+        <v>610</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4">
+        <v>4417.5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>397.58</v>
+      </c>
+      <c r="H4">
+        <v>397.58</v>
+      </c>
+      <c r="I4">
+        <v>795.16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>611</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5">
+        <v>15240</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1371.6</v>
+      </c>
+      <c r="H5">
+        <v>1371.6</v>
+      </c>
+      <c r="I5">
+        <v>2743.2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>609</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6">
+        <v>18632</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1676.88</v>
+      </c>
+      <c r="H6">
+        <v>1676.88</v>
+      </c>
+      <c r="I6">
+        <v>3353.76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>612</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7">
+        <v>22340</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2010.6</v>
+      </c>
+      <c r="H7">
+        <v>2010.6</v>
+      </c>
+      <c r="I7">
+        <v>4021.2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8">
+        <v>3344</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>301</v>
+      </c>
+      <c r="H8">
+        <v>301</v>
+      </c>
+      <c r="I8">
+        <v>602</v>
+      </c>
+      <c r="J8" t="s">
+        <v>610</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9">
+        <v>1300</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>117</v>
+      </c>
+      <c r="H9">
+        <v>117</v>
+      </c>
+      <c r="I9">
+        <v>234</v>
+      </c>
+      <c r="J9" t="s">
+        <v>619</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10">
+        <v>21011.08</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1890.99</v>
+      </c>
+      <c r="H10">
+        <v>1890.99</v>
+      </c>
+      <c r="I10">
+        <v>3781.98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>612</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11">
+        <v>2559</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>230.31</v>
+      </c>
+      <c r="H11">
+        <v>230.31</v>
+      </c>
+      <c r="I11">
+        <v>460.62</v>
+      </c>
+      <c r="J11" t="s">
+        <v>626</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12">
+        <v>34200</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>3078</v>
+      </c>
+      <c r="H12">
+        <v>3078</v>
+      </c>
+      <c r="I12">
+        <v>6156</v>
+      </c>
+      <c r="J12" t="s">
+        <v>632</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13">
+        <v>8669.65</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>780.26</v>
+      </c>
+      <c r="H13">
+        <v>780.26</v>
+      </c>
+      <c r="I13">
+        <v>1560.52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>636</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14">
+        <v>7006.7</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>630.6</v>
+      </c>
+      <c r="H14">
+        <v>630.6</v>
+      </c>
+      <c r="I14">
+        <v>1261.2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>615</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15">
+        <v>3600</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>324</v>
+      </c>
+      <c r="H15">
+        <v>324</v>
+      </c>
+      <c r="I15">
+        <v>648</v>
+      </c>
+      <c r="J15" t="s">
+        <v>632</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16">
+        <v>4426</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>398.34</v>
+      </c>
+      <c r="H16">
+        <v>398.34</v>
+      </c>
+      <c r="I16">
+        <v>796.6799999999999</v>
+      </c>
+      <c r="J16" t="s">
+        <v>645</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17">
+        <v>2760</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>248.4</v>
+      </c>
+      <c r="H17">
+        <v>248.4</v>
+      </c>
+      <c r="I17">
+        <v>496.8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>647</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18">
+        <v>2219</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>200</v>
+      </c>
+      <c r="H18">
+        <v>200</v>
+      </c>
+      <c r="I18">
+        <v>400</v>
+      </c>
+      <c r="J18" t="s">
+        <v>649</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19">
+        <v>8718.23</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>784.64</v>
+      </c>
+      <c r="H19">
+        <v>784.64</v>
+      </c>
+      <c r="I19">
+        <v>1569.28</v>
+      </c>
+      <c r="J19" t="s">
+        <v>651</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20">
+        <v>7668.4</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>690.15</v>
+      </c>
+      <c r="H20">
+        <v>690.15</v>
+      </c>
+      <c r="I20">
+        <v>1380.3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>655</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21">
+        <v>1900</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>171</v>
+      </c>
+      <c r="H21">
+        <v>171</v>
+      </c>
+      <c r="I21">
+        <v>342</v>
+      </c>
+      <c r="J21" t="s">
+        <v>613</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22">
+        <v>891.8200000000001</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>80.26000000000001</v>
+      </c>
+      <c r="H22">
+        <v>80.26000000000001</v>
+      </c>
+      <c r="I22">
+        <v>160.52</v>
+      </c>
+      <c r="J22" t="s">
+        <v>613</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23">
+        <v>8931</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>803.79</v>
+      </c>
+      <c r="H23">
+        <v>803.79</v>
+      </c>
+      <c r="I23">
+        <v>1607.58</v>
+      </c>
+      <c r="J23" t="s">
+        <v>666</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>240</v>
+      </c>
+      <c r="E24">
+        <v>1900</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>171</v>
+      </c>
+      <c r="H24">
+        <v>171</v>
+      </c>
+      <c r="I24">
+        <v>342</v>
+      </c>
+      <c r="J24" t="s">
+        <v>667</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E25">
+        <v>814.35</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>73.29000000000001</v>
+      </c>
+      <c r="H25">
+        <v>73.29000000000001</v>
+      </c>
+      <c r="I25">
+        <v>146.58</v>
+      </c>
+      <c r="J25" t="s">
+        <v>678</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26">
+        <v>11991</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1079.19</v>
+      </c>
+      <c r="H26">
+        <v>1079.19</v>
+      </c>
+      <c r="I26">
+        <v>2158.38</v>
+      </c>
+      <c r="J26" t="s">
+        <v>682</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27">
+        <v>580</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>52.2</v>
+      </c>
+      <c r="H27">
+        <v>52.2</v>
+      </c>
+      <c r="I27">
+        <v>104.4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>683</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28">
+        <v>5713</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>514.17</v>
+      </c>
+      <c r="H28">
+        <v>514.17</v>
+      </c>
+      <c r="I28">
+        <v>1028.34</v>
+      </c>
+      <c r="J28" t="s">
+        <v>630</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>267</v>
+      </c>
+      <c r="E29">
+        <v>27822</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>2503.98</v>
+      </c>
+      <c r="H29">
+        <v>2503.98</v>
+      </c>
+      <c r="I29">
+        <v>5007.96</v>
+      </c>
+      <c r="J29" t="s">
+        <v>693</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E30">
+        <v>2984</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>268.56</v>
+      </c>
+      <c r="H30">
+        <v>268.56</v>
+      </c>
+      <c r="I30">
+        <v>537.12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>637</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>284</v>
+      </c>
+      <c r="E31">
+        <v>1265</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>113.85</v>
+      </c>
+      <c r="H31">
+        <v>113.85</v>
+      </c>
+      <c r="I31">
+        <v>227.7</v>
+      </c>
+      <c r="J31" t="s">
+        <v>710</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" t="s">
+        <v>277</v>
+      </c>
+      <c r="E32">
+        <v>1560</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>140.4</v>
+      </c>
+      <c r="H32">
+        <v>140.4</v>
+      </c>
+      <c r="I32">
+        <v>280.8</v>
+      </c>
+      <c r="J32" t="s">
+        <v>703</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" t="s">
+        <v>297</v>
+      </c>
+      <c r="E33">
+        <v>60300</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>5427</v>
+      </c>
+      <c r="H33">
+        <v>5427</v>
+      </c>
+      <c r="I33">
+        <v>10854</v>
+      </c>
+      <c r="J33" t="s">
+        <v>723</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" t="s">
+        <v>226</v>
+      </c>
+      <c r="E34">
+        <v>10206</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>918.54</v>
+      </c>
+      <c r="H34">
+        <v>918.54</v>
+      </c>
+      <c r="I34">
+        <v>1837.08</v>
+      </c>
+      <c r="J34" t="s">
+        <v>655</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" t="s">
+        <v>315</v>
+      </c>
+      <c r="E35">
+        <v>90285</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>8125.65</v>
+      </c>
+      <c r="H35">
+        <v>8125.65</v>
+      </c>
+      <c r="I35">
+        <v>16251.3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>738</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>239</v>
+      </c>
+      <c r="E36">
+        <v>11187</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1006.83</v>
+      </c>
+      <c r="H36">
+        <v>1006.83</v>
+      </c>
+      <c r="I36">
+        <v>2013.66</v>
+      </c>
+      <c r="J36" t="s">
+        <v>666</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" t="s">
+        <v>322</v>
+      </c>
+      <c r="E37">
+        <v>682.5</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>61.43</v>
+      </c>
+      <c r="H37">
+        <v>61.43</v>
+      </c>
+      <c r="I37">
+        <v>122.86</v>
+      </c>
+      <c r="J37" t="s">
+        <v>743</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38">
+        <v>8083</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>727.47</v>
+      </c>
+      <c r="H38">
+        <v>727.47</v>
+      </c>
+      <c r="I38">
+        <v>1454.94</v>
+      </c>
+      <c r="J38" t="s">
+        <v>610</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" t="s">
+        <v>328</v>
+      </c>
+      <c r="E39">
+        <v>6750</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>607.5</v>
+      </c>
+      <c r="H39">
+        <v>607.5</v>
+      </c>
+      <c r="I39">
+        <v>1215</v>
+      </c>
+      <c r="J39" t="s">
+        <v>749</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" t="s">
+        <v>335</v>
+      </c>
+      <c r="E40">
+        <v>98932.5</v>
+      </c>
+      <c r="F40">
+        <v>17807.85</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>17807.85</v>
+      </c>
+      <c r="J40" t="s">
+        <v>754</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" t="s">
+        <v>203</v>
+      </c>
+      <c r="E41">
+        <v>1780</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>160.2</v>
+      </c>
+      <c r="H41">
+        <v>160.2</v>
+      </c>
+      <c r="I41">
+        <v>320.4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>634</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>341</v>
+      </c>
+      <c r="E42">
+        <v>15360</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1382.4</v>
+      </c>
+      <c r="H42">
+        <v>1382.4</v>
+      </c>
+      <c r="I42">
+        <v>2764.8</v>
+      </c>
+      <c r="J42" t="s">
+        <v>758</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E43">
+        <v>2380</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>214.2</v>
+      </c>
+      <c r="H43">
+        <v>214.2</v>
+      </c>
+      <c r="I43">
+        <v>428.4</v>
+      </c>
+      <c r="J43" t="s">
+        <v>619</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" t="s">
+        <v>343</v>
+      </c>
+      <c r="E44">
+        <v>17889</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1610.01</v>
+      </c>
+      <c r="H44">
+        <v>1610.01</v>
+      </c>
+      <c r="I44">
+        <v>3220.02</v>
+      </c>
+      <c r="J44" t="s">
+        <v>760</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" t="s">
+        <v>277</v>
+      </c>
+      <c r="E45">
+        <v>3034.14</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>273.08</v>
+      </c>
+      <c r="H45">
+        <v>273.08</v>
+      </c>
+      <c r="I45">
+        <v>546.16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>703</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" t="s">
+        <v>357</v>
+      </c>
+      <c r="E46">
+        <v>8407.719999999999</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>756.7</v>
+      </c>
+      <c r="H46">
+        <v>756.7</v>
+      </c>
+      <c r="I46">
+        <v>1513.4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>773</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47">
+        <v>24050</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>2164.5</v>
+      </c>
+      <c r="H47">
+        <v>2164.5</v>
+      </c>
+      <c r="I47">
+        <v>4329</v>
+      </c>
+      <c r="J47" t="s">
+        <v>633</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" t="s">
+        <v>363</v>
+      </c>
+      <c r="E48">
+        <v>39077.5</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>3516.98</v>
+      </c>
+      <c r="H48">
+        <v>3516.98</v>
+      </c>
+      <c r="I48">
+        <v>7033.96</v>
+      </c>
+      <c r="J48" t="s">
+        <v>778</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" t="s">
+        <v>366</v>
+      </c>
+      <c r="E49">
+        <v>3360</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>302.4</v>
+      </c>
+      <c r="H49">
+        <v>302.4</v>
+      </c>
+      <c r="I49">
+        <v>604.8</v>
+      </c>
+      <c r="J49" t="s">
+        <v>781</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50">
+        <v>26035</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>2343.15</v>
+      </c>
+      <c r="H50">
+        <v>2343.15</v>
+      </c>
+      <c r="I50">
+        <v>4686.3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>649</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" t="s">
+        <v>378</v>
+      </c>
+      <c r="E51">
+        <v>1457.7</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>131.19</v>
+      </c>
+      <c r="H51">
+        <v>131.19</v>
+      </c>
+      <c r="I51">
+        <v>262.38</v>
+      </c>
+      <c r="J51" t="s">
+        <v>793</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" t="s">
+        <v>396</v>
+      </c>
+      <c r="E52">
+        <v>10078.48</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>907.05</v>
+      </c>
+      <c r="H52">
+        <v>907.05</v>
+      </c>
+      <c r="I52">
+        <v>1814.1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>810</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E53">
+        <v>450</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>40.5</v>
+      </c>
+      <c r="H53">
+        <v>40.5</v>
+      </c>
+      <c r="I53">
+        <v>81</v>
+      </c>
+      <c r="J53" t="s">
+        <v>815</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" t="s">
+        <v>405</v>
+      </c>
+      <c r="E54">
+        <v>1045</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>94.05</v>
+      </c>
+      <c r="H54">
+        <v>94.05</v>
+      </c>
+      <c r="I54">
+        <v>188.1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>819</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" t="s">
+        <v>409</v>
+      </c>
+      <c r="E55">
+        <v>570</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>51.3</v>
+      </c>
+      <c r="H55">
+        <v>51.3</v>
+      </c>
+      <c r="I55">
+        <v>102.6</v>
+      </c>
+      <c r="J55" t="s">
+        <v>823</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" t="s">
+        <v>359</v>
+      </c>
+      <c r="E56">
+        <v>9100.459999999999</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>819.04</v>
+      </c>
+      <c r="H56">
+        <v>819.04</v>
+      </c>
+      <c r="I56">
+        <v>1638.08</v>
+      </c>
+      <c r="J56" t="s">
+        <v>775</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57">
+        <v>16955</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1525.95</v>
+      </c>
+      <c r="H57">
+        <v>1525.95</v>
+      </c>
+      <c r="I57">
+        <v>3051.9</v>
+      </c>
+      <c r="J57" t="s">
+        <v>617</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" t="s">
+        <v>424</v>
+      </c>
+      <c r="E58">
+        <v>1103.25</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>99.29000000000001</v>
+      </c>
+      <c r="H58">
+        <v>99.29000000000001</v>
+      </c>
+      <c r="I58">
+        <v>198.58</v>
+      </c>
+      <c r="J58" t="s">
+        <v>838</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" t="s">
+        <v>425</v>
+      </c>
+      <c r="E59">
+        <v>13620</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1225.8</v>
+      </c>
+      <c r="H59">
+        <v>1225.8</v>
+      </c>
+      <c r="I59">
+        <v>2451.6</v>
+      </c>
+      <c r="J59" t="s">
+        <v>839</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" t="s">
+        <v>438</v>
+      </c>
+      <c r="E60">
+        <v>4121.15</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>370.9</v>
+      </c>
+      <c r="H60">
+        <v>370.9</v>
+      </c>
+      <c r="I60">
+        <v>741.8</v>
+      </c>
+      <c r="J60" t="s">
+        <v>850</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" t="s">
+        <v>454</v>
+      </c>
+      <c r="E61">
+        <v>305</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>27.45</v>
+      </c>
+      <c r="H61">
+        <v>27.45</v>
+      </c>
+      <c r="I61">
+        <v>54.9</v>
+      </c>
+      <c r="J61" t="s">
+        <v>865</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" t="s">
+        <v>469</v>
+      </c>
+      <c r="E62">
+        <v>8898.75</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>800.89</v>
+      </c>
+      <c r="H62">
+        <v>800.89</v>
+      </c>
+      <c r="I62">
+        <v>1601.78</v>
+      </c>
+      <c r="J62" t="s">
+        <v>878</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" t="s">
+        <v>202</v>
+      </c>
+      <c r="E63">
+        <v>19918</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1792.62</v>
+      </c>
+      <c r="H63">
+        <v>1792.62</v>
+      </c>
+      <c r="I63">
+        <v>3585.24</v>
+      </c>
+      <c r="J63" t="s">
+        <v>633</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" t="s">
+        <v>294</v>
+      </c>
+      <c r="E64">
+        <v>4860</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>437.4</v>
+      </c>
+      <c r="H64">
+        <v>437.4</v>
+      </c>
+      <c r="I64">
+        <v>874.8</v>
+      </c>
+      <c r="J64" t="s">
+        <v>720</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" t="s">
+        <v>294</v>
+      </c>
+      <c r="E65">
+        <v>71503</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>6435.27</v>
+      </c>
+      <c r="H65">
+        <v>6435.27</v>
+      </c>
+      <c r="I65">
+        <v>12870.54</v>
+      </c>
+      <c r="J65" t="s">
+        <v>720</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" t="s">
+        <v>476</v>
+      </c>
+      <c r="E66">
+        <v>9258.09</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>833.23</v>
+      </c>
+      <c r="H66">
+        <v>833.23</v>
+      </c>
+      <c r="I66">
+        <v>1666.46</v>
+      </c>
+      <c r="J66" t="s">
+        <v>885</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" t="s">
+        <v>221</v>
+      </c>
+      <c r="E67">
+        <v>1446</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>130.14</v>
+      </c>
+      <c r="H67">
+        <v>130.14</v>
+      </c>
+      <c r="I67">
+        <v>260.28</v>
+      </c>
+      <c r="J67" t="s">
+        <v>651</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" t="s">
+        <v>234</v>
+      </c>
+      <c r="E68">
+        <v>7561</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>680.49</v>
+      </c>
+      <c r="H68">
+        <v>680.49</v>
+      </c>
+      <c r="I68">
+        <v>1360.98</v>
+      </c>
+      <c r="J68" t="s">
+        <v>662</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" t="s">
+        <v>494</v>
+      </c>
+      <c r="E69">
+        <v>473.66</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>42.61</v>
+      </c>
+      <c r="H69">
+        <v>42.61</v>
+      </c>
+      <c r="I69">
+        <v>85.22</v>
+      </c>
+      <c r="J69" t="s">
+        <v>903</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" t="s">
+        <v>240</v>
+      </c>
+      <c r="E70">
+        <v>3538</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>318.41</v>
+      </c>
+      <c r="H70">
+        <v>318.41</v>
+      </c>
+      <c r="I70">
+        <v>636.8200000000001</v>
+      </c>
+      <c r="J70" t="s">
+        <v>667</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" t="s">
+        <v>501</v>
+      </c>
+      <c r="E71">
+        <v>4136</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>372.24</v>
+      </c>
+      <c r="H71">
+        <v>372.24</v>
+      </c>
+      <c r="I71">
+        <v>744.48</v>
+      </c>
+      <c r="J71" t="s">
+        <v>908</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" t="s">
+        <v>506</v>
+      </c>
+      <c r="E72">
+        <v>1680</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>151.2</v>
+      </c>
+      <c r="H72">
+        <v>151.2</v>
+      </c>
+      <c r="I72">
+        <v>302.4</v>
+      </c>
+      <c r="J72" t="s">
+        <v>754</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" t="s">
+        <v>434</v>
+      </c>
+      <c r="E73">
+        <v>1470.41</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>132.34</v>
+      </c>
+      <c r="H73">
+        <v>132.34</v>
+      </c>
+      <c r="I73">
+        <v>264.68</v>
+      </c>
+      <c r="J73" t="s">
+        <v>846</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74">
+        <v>1500</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>135</v>
+      </c>
+      <c r="H74">
+        <v>135</v>
+      </c>
+      <c r="I74">
+        <v>270</v>
+      </c>
+      <c r="J74" t="s">
+        <v>614</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" t="s">
+        <v>533</v>
+      </c>
+      <c r="E75">
+        <v>510</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>45.9</v>
+      </c>
+      <c r="H75">
+        <v>45.9</v>
+      </c>
+      <c r="I75">
+        <v>91.8</v>
+      </c>
+      <c r="J75" t="s">
+        <v>533</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76" t="s">
+        <v>226</v>
+      </c>
+      <c r="E76">
+        <v>46240</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>4161.6</v>
+      </c>
+      <c r="H76">
+        <v>4161.6</v>
+      </c>
+      <c r="I76">
+        <v>8323.200000000001</v>
+      </c>
+      <c r="J76" t="s">
+        <v>655</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s">
+        <v>133</v>
+      </c>
+      <c r="D77" t="s">
+        <v>209</v>
+      </c>
+      <c r="E77">
+        <v>25315</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>2278.35</v>
+      </c>
+      <c r="H77">
+        <v>2278.35</v>
+      </c>
+      <c r="I77">
+        <v>4556.7</v>
+      </c>
+      <c r="J77" t="s">
+        <v>639</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" t="s">
+        <v>185</v>
+      </c>
+      <c r="E78">
+        <v>2744.57</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>247.01</v>
+      </c>
+      <c r="H78">
+        <v>247.01</v>
+      </c>
+      <c r="I78">
+        <v>494.02</v>
+      </c>
+      <c r="J78" t="s">
+        <v>617</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79" t="s">
+        <v>556</v>
+      </c>
+      <c r="E79">
+        <v>1095.44</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>98.59</v>
+      </c>
+      <c r="H79">
+        <v>98.59</v>
+      </c>
+      <c r="I79">
+        <v>197.18</v>
+      </c>
+      <c r="J79" t="s">
+        <v>960</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" t="s">
+        <v>557</v>
+      </c>
+      <c r="E80">
+        <v>2896.4</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>260.67</v>
+      </c>
+      <c r="H80">
+        <v>260.67</v>
+      </c>
+      <c r="I80">
+        <v>521.34</v>
+      </c>
+      <c r="J80" t="s">
+        <v>961</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" t="s">
+        <v>133</v>
+      </c>
+      <c r="D81" t="s">
+        <v>183</v>
+      </c>
+      <c r="E81">
+        <v>9353</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>841.77</v>
+      </c>
+      <c r="H81">
+        <v>841.77</v>
+      </c>
+      <c r="I81">
+        <v>1683.54</v>
+      </c>
+      <c r="J81" t="s">
+        <v>615</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" t="s">
+        <v>180</v>
+      </c>
+      <c r="E82">
+        <v>5040</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>453.6</v>
+      </c>
+      <c r="H82">
+        <v>453.6</v>
+      </c>
+      <c r="I82">
+        <v>907.2</v>
+      </c>
+      <c r="J82" t="s">
+        <v>612</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" t="s">
+        <v>133</v>
+      </c>
+      <c r="D83" t="s">
+        <v>590</v>
+      </c>
+      <c r="E83">
+        <v>13220</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>1189.8</v>
+      </c>
+      <c r="H83">
+        <v>1189.8</v>
+      </c>
+      <c r="I83">
+        <v>2379.6</v>
+      </c>
+      <c r="J83" t="s">
+        <v>994</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D84" t="s">
+        <v>371</v>
+      </c>
+      <c r="E84">
+        <v>576.3</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>51.87</v>
+      </c>
+      <c r="H84">
+        <v>51.87</v>
+      </c>
+      <c r="I84">
+        <v>103.74</v>
+      </c>
+      <c r="J84" t="s">
+        <v>786</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" t="s">
+        <v>143</v>
+      </c>
+      <c r="D85" t="s">
+        <v>431</v>
+      </c>
+      <c r="E85">
+        <v>78065</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>7025.85</v>
+      </c>
+      <c r="H85">
+        <v>7025.85</v>
+      </c>
+      <c r="I85">
+        <v>14051.7</v>
+      </c>
+      <c r="J85" t="s">
+        <v>843</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>9631587.08</v>
+      </c>
+      <c r="F86">
+        <v>78536.08</v>
+      </c>
+      <c r="G86">
+        <v>827213.51</v>
+      </c>
+      <c r="H86">
+        <v>827213.52</v>
+      </c>
+      <c r="I86">
+        <v>1732963.11</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M2">
+        <v>22054.2</v>
+      </c>
+      <c r="N2">
+        <v>18690</v>
+      </c>
+      <c r="O2">
+        <v>3364.2</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="M3">
+        <v>2501</v>
+      </c>
+      <c r="N3">
+        <v>2501</v>
+      </c>
+      <c r="O3">
+        <v>125.05</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M4">
+        <v>17983</v>
+      </c>
+      <c r="N4">
+        <v>15240</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1371.6</v>
+      </c>
+      <c r="Q4">
+        <v>1371.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M5">
+        <v>21986</v>
+      </c>
+      <c r="N5">
+        <v>18632</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1676.88</v>
+      </c>
+      <c r="Q5">
+        <v>1676.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1256</v>
+      </c>
+      <c r="M6">
+        <v>10288</v>
+      </c>
+      <c r="N6">
+        <v>8718.23</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>784.64</v>
+      </c>
+      <c r="Q6">
+        <v>784.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M7">
+        <v>26361</v>
+      </c>
+      <c r="N7">
+        <v>22340</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>2010.5</v>
+      </c>
+      <c r="Q7">
+        <v>2010.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M8">
+        <v>33426.46</v>
+      </c>
+      <c r="N8">
+        <v>28327.5</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>2549.48</v>
+      </c>
+      <c r="Q8">
+        <v>2549.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="M9">
+        <v>5213</v>
+      </c>
+      <c r="N9">
+        <v>4417.5</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>397.58</v>
+      </c>
+      <c r="Q9">
+        <v>397.58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M10">
+        <v>10230</v>
+      </c>
+      <c r="N10">
+        <v>8669.65</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>780.27</v>
+      </c>
+      <c r="Q10">
+        <v>780.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M11">
+        <v>3257</v>
+      </c>
+      <c r="N11">
+        <v>2760</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>248.4</v>
+      </c>
+      <c r="Q11">
+        <v>248.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1259</v>
+      </c>
+      <c r="M12">
+        <v>1534</v>
+      </c>
+      <c r="N12">
+        <v>1300</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>117</v>
+      </c>
+      <c r="Q12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="M13">
+        <v>2242</v>
+      </c>
+      <c r="N13">
+        <v>1900</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>171</v>
+      </c>
+      <c r="Q13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1261</v>
+      </c>
+      <c r="M14">
+        <v>10539</v>
+      </c>
+      <c r="N14">
+        <v>8931</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>803.79</v>
+      </c>
+      <c r="Q14">
+        <v>803.79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1262</v>
+      </c>
+      <c r="M15">
+        <v>8268</v>
+      </c>
+      <c r="N15">
+        <v>7006.7</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>630.6</v>
+      </c>
+      <c r="Q15">
+        <v>630.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1263</v>
+      </c>
+      <c r="M16">
+        <v>9049</v>
+      </c>
+      <c r="N16">
+        <v>7668.4</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>690.15</v>
+      </c>
+      <c r="Q16">
+        <v>690.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M17">
+        <v>12043</v>
+      </c>
+      <c r="N17">
+        <v>10206</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>918.5</v>
+      </c>
+      <c r="Q17">
+        <v>918.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1127</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1264</v>
+      </c>
+      <c r="M18">
+        <v>684</v>
+      </c>
+      <c r="N18">
+        <v>580</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>52.2</v>
+      </c>
+      <c r="Q18">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1127</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1265</v>
+      </c>
+      <c r="M19">
+        <v>1493</v>
+      </c>
+      <c r="N19">
+        <v>1265</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>113.85</v>
+      </c>
+      <c r="Q19">
+        <v>113.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1127</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1266</v>
+      </c>
+      <c r="M20">
+        <v>805</v>
+      </c>
+      <c r="N20">
+        <v>682.5</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>61.43</v>
+      </c>
+      <c r="Q20">
+        <v>61.43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1267</v>
+      </c>
+      <c r="M21">
+        <v>1088</v>
+      </c>
+      <c r="N21">
+        <v>1088</v>
+      </c>
+      <c r="O21">
+        <v>54.4</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1031</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1031</v>
+      </c>
+      <c r="M22">
+        <v>71154</v>
+      </c>
+      <c r="N22">
+        <v>60300</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>5427</v>
+      </c>
+      <c r="Q22">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1079</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M23">
+        <v>32830</v>
+      </c>
+      <c r="N23">
+        <v>27822</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>2503.98</v>
+      </c>
+      <c r="Q23">
+        <v>2503.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M24">
+        <v>3946</v>
+      </c>
+      <c r="N24">
+        <v>3344</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>300.96</v>
+      </c>
+      <c r="Q24">
+        <v>300.96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M25">
+        <v>3020</v>
+      </c>
+      <c r="N25">
+        <v>2559</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>230.31</v>
+      </c>
+      <c r="Q25">
+        <v>230.31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M26">
+        <v>5223</v>
+      </c>
+      <c r="N26">
+        <v>4426</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>398.34</v>
+      </c>
+      <c r="Q26">
+        <v>398.34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M27">
+        <v>2619</v>
+      </c>
+      <c r="N27">
+        <v>2219</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>199.71</v>
+      </c>
+      <c r="Q27">
+        <v>199.71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1037</v>
+      </c>
+      <c r="M28">
+        <v>6741</v>
+      </c>
+      <c r="N28">
+        <v>5713</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>514.17</v>
+      </c>
+      <c r="Q28">
+        <v>514.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M29">
+        <v>3521</v>
+      </c>
+      <c r="N29">
+        <v>2984</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>268.56</v>
+      </c>
+      <c r="Q29">
+        <v>268.56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M30">
+        <v>21109</v>
+      </c>
+      <c r="N30">
+        <v>17889</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>1610.01</v>
+      </c>
+      <c r="Q30">
+        <v>1610.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1040</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1144</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M31">
+        <v>3965</v>
+      </c>
+      <c r="N31">
+        <v>3360</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>302.4</v>
+      </c>
+      <c r="Q31">
+        <v>302.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1105</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1268</v>
+      </c>
+      <c r="M32">
+        <v>7965</v>
+      </c>
+      <c r="N32">
+        <v>6750</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>607.5</v>
+      </c>
+      <c r="Q32">
+        <v>607.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1105</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1269</v>
+      </c>
+      <c r="M33">
+        <v>28379</v>
+      </c>
+      <c r="N33">
+        <v>24050</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>2164.5</v>
+      </c>
+      <c r="Q33">
+        <v>2164.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1043</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1080</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1270</v>
+      </c>
+      <c r="M34">
+        <v>24793</v>
+      </c>
+      <c r="N34">
+        <v>21011.08</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>1891</v>
+      </c>
+      <c r="Q34">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1079</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M35">
+        <v>24703</v>
+      </c>
+      <c r="N35">
+        <v>20935</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>1884.15</v>
+      </c>
+      <c r="Q35">
+        <v>1884.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>826</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1145</v>
+      </c>
+      <c r="L36" t="s">
+        <v>826</v>
+      </c>
+      <c r="M36">
+        <v>106536</v>
+      </c>
+      <c r="N36">
+        <v>90285</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>8125.65</v>
+      </c>
+      <c r="Q36">
+        <v>8125.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1145</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M37">
+        <v>30721</v>
+      </c>
+      <c r="N37">
+        <v>26035</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>2343.15</v>
+      </c>
+      <c r="Q37">
+        <v>2343.15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1086</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1271</v>
+      </c>
+      <c r="M38">
+        <v>116740</v>
+      </c>
+      <c r="N38">
+        <v>98932.5</v>
+      </c>
+      <c r="O38">
+        <v>17807.85</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1272</v>
+      </c>
+      <c r="M39">
+        <v>46111</v>
+      </c>
+      <c r="N39">
+        <v>39077.5</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>3516.98</v>
+      </c>
+      <c r="Q39">
+        <v>3516.98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1273</v>
+      </c>
+      <c r="M40">
+        <v>4863</v>
+      </c>
+      <c r="N40">
+        <v>4121.15</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>370.9</v>
+      </c>
+      <c r="Q40">
+        <v>370.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M41">
+        <v>4880</v>
+      </c>
+      <c r="N41">
+        <v>4136</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>372.24</v>
+      </c>
+      <c r="Q41">
+        <v>372.24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M42">
+        <v>7797</v>
+      </c>
+      <c r="N42">
+        <v>6607</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>595</v>
+      </c>
+      <c r="Q42">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1275</v>
+      </c>
+      <c r="M43">
+        <v>2825</v>
+      </c>
+      <c r="N43">
+        <v>2825</v>
+      </c>
+      <c r="O43">
+        <v>141.25</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1147</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1276</v>
+      </c>
+      <c r="M44">
+        <v>9921</v>
+      </c>
+      <c r="N44">
+        <v>8407.719999999999</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>756.6900000000001</v>
+      </c>
+      <c r="Q44">
+        <v>756.6900000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M45">
+        <v>1720</v>
+      </c>
+      <c r="N45">
+        <v>1457.7</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>131.19</v>
+      </c>
+      <c r="Q45">
+        <v>131.19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L46" t="s">
+        <v>1278</v>
+      </c>
+      <c r="M46">
+        <v>2242</v>
+      </c>
+      <c r="N46">
+        <v>1900</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>171</v>
+      </c>
+      <c r="Q46">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M47">
+        <v>1841</v>
+      </c>
+      <c r="N47">
+        <v>1560</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>140.4</v>
+      </c>
+      <c r="Q47">
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L48" t="s">
+        <v>1280</v>
+      </c>
+      <c r="M48">
+        <v>2100</v>
+      </c>
+      <c r="N48">
+        <v>1780</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>160.2</v>
+      </c>
+      <c r="Q48">
+        <v>160.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1281</v>
+      </c>
+      <c r="M49">
+        <v>743</v>
+      </c>
+      <c r="N49">
+        <v>630</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>56.7</v>
+      </c>
+      <c r="Q49">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1282</v>
+      </c>
+      <c r="M50">
+        <v>4248</v>
+      </c>
+      <c r="N50">
+        <v>3600</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>324</v>
+      </c>
+      <c r="Q50">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1283</v>
+      </c>
+      <c r="M51">
+        <v>9538</v>
+      </c>
+      <c r="N51">
+        <v>8083</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>727.47</v>
+      </c>
+      <c r="Q51">
+        <v>727.47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1284</v>
+      </c>
+      <c r="M52">
+        <v>2808</v>
+      </c>
+      <c r="N52">
+        <v>2380</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>214.2</v>
+      </c>
+      <c r="Q52">
+        <v>214.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M53">
+        <v>18125</v>
+      </c>
+      <c r="N53">
+        <v>15360</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>1382.5</v>
+      </c>
+      <c r="Q53">
+        <v>1382.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>635</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1108</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1285</v>
+      </c>
+      <c r="M54">
+        <v>48427</v>
+      </c>
+      <c r="N54">
+        <v>41040</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>3693.6</v>
+      </c>
+      <c r="Q54">
+        <v>3693.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1088</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M55">
+        <v>14149</v>
+      </c>
+      <c r="N55">
+        <v>11991</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>1079.19</v>
+      </c>
+      <c r="Q55">
+        <v>1079.19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1088</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M56">
+        <v>13201</v>
+      </c>
+      <c r="N56">
+        <v>11187</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>1006.83</v>
+      </c>
+      <c r="Q56">
+        <v>1006.83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1101</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M57">
+        <v>40356</v>
+      </c>
+      <c r="N57">
+        <v>34200</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>3078</v>
+      </c>
+      <c r="Q57">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1127</v>
+      </c>
+      <c r="L58" t="s">
+        <v>1286</v>
+      </c>
+      <c r="M58">
+        <v>1233</v>
+      </c>
+      <c r="N58">
+        <v>1045</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>94.05</v>
+      </c>
+      <c r="Q58">
+        <v>94.05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M59">
+        <v>673</v>
+      </c>
+      <c r="N59">
+        <v>570</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>51.3</v>
+      </c>
+      <c r="Q59">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K60" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M60">
+        <v>11893</v>
+      </c>
+      <c r="N60">
+        <v>10078.48</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>907.05</v>
+      </c>
+      <c r="Q60">
+        <v>907.05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K61" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L61" t="s">
+        <v>1288</v>
+      </c>
+      <c r="M61">
+        <v>10739</v>
+      </c>
+      <c r="N61">
+        <v>9100.459999999999</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>819.04</v>
+      </c>
+      <c r="Q61">
+        <v>819.04</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K62" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L62" t="s">
+        <v>1289</v>
+      </c>
+      <c r="M62">
+        <v>10501</v>
+      </c>
+      <c r="N62">
+        <v>8898.75</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>800.89</v>
+      </c>
+      <c r="Q62">
+        <v>800.89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K63" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1290</v>
+      </c>
+      <c r="M63">
+        <v>10925</v>
+      </c>
+      <c r="N63">
+        <v>9258.09</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>833.23</v>
+      </c>
+      <c r="Q63">
+        <v>833.23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1079</v>
+      </c>
+      <c r="L64" t="s">
+        <v>1065</v>
+      </c>
+      <c r="M64">
+        <v>16072</v>
+      </c>
+      <c r="N64">
+        <v>13620</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>1225.8</v>
+      </c>
+      <c r="Q64">
+        <v>1225.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K65" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1291</v>
+      </c>
+      <c r="M65">
+        <v>2272</v>
+      </c>
+      <c r="N65">
+        <v>2272</v>
+      </c>
+      <c r="O65">
+        <v>113.6</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K66" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1292</v>
+      </c>
+      <c r="M66">
+        <v>1735</v>
+      </c>
+      <c r="N66">
+        <v>1470.41</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>132.34</v>
+      </c>
+      <c r="Q66">
+        <v>132.34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K67" t="s">
+        <v>1149</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M67">
+        <v>1982</v>
+      </c>
+      <c r="N67">
+        <v>1680</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>151.2</v>
+      </c>
+      <c r="Q67">
+        <v>151.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>935</v>
+      </c>
+      <c r="K68" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L68" t="s">
+        <v>935</v>
+      </c>
+      <c r="M68">
+        <v>23503</v>
+      </c>
+      <c r="N68">
+        <v>19918</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>1792.62</v>
+      </c>
+      <c r="Q68">
+        <v>1792.62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>612</v>
+      </c>
+      <c r="K69" t="s">
+        <v>1150</v>
+      </c>
+      <c r="L69" t="s">
+        <v>1294</v>
+      </c>
+      <c r="M69">
+        <v>531</v>
+      </c>
+      <c r="N69">
+        <v>450</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>40.5</v>
+      </c>
+      <c r="Q69">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1105</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M70">
+        <v>29871.97</v>
+      </c>
+      <c r="N70">
+        <v>25315</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>2278.35</v>
+      </c>
+      <c r="Q70">
+        <v>2278.35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K71" t="s">
+        <v>1105</v>
+      </c>
+      <c r="L71" t="s">
+        <v>1296</v>
+      </c>
+      <c r="M71">
+        <v>11037</v>
+      </c>
+      <c r="N71">
+        <v>9353</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>841.77</v>
+      </c>
+      <c r="Q71">
+        <v>841.77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K72" t="s">
+        <v>1105</v>
+      </c>
+      <c r="L72" t="s">
+        <v>1297</v>
+      </c>
+      <c r="M72">
+        <v>15600</v>
+      </c>
+      <c r="N72">
+        <v>13220</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>1189.8</v>
+      </c>
+      <c r="Q72">
+        <v>1189.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>102</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73" t="s">
+        <v>682</v>
+      </c>
+      <c r="K73" t="s">
+        <v>1080</v>
+      </c>
+      <c r="L73" t="s">
+        <v>255</v>
+      </c>
+      <c r="M73">
+        <v>8922</v>
+      </c>
+      <c r="N73">
+        <v>7561</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>680.49</v>
+      </c>
+      <c r="Q73">
+        <v>680.49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1145</v>
+      </c>
+      <c r="L74" t="s">
+        <v>1070</v>
+      </c>
+      <c r="M74">
+        <v>84374</v>
+      </c>
+      <c r="N74">
+        <v>71503</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>6435.27</v>
+      </c>
+      <c r="Q74">
+        <v>6435.27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1145</v>
+      </c>
+      <c r="L75" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M75">
+        <v>54563</v>
+      </c>
+      <c r="N75">
+        <v>46240</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>4161.6</v>
+      </c>
+      <c r="Q75">
+        <v>4161.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>838</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1145</v>
+      </c>
+      <c r="L76" t="s">
+        <v>838</v>
+      </c>
+      <c r="M76">
+        <v>92117</v>
+      </c>
+      <c r="N76">
+        <v>78065</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>7025.85</v>
+      </c>
+      <c r="Q76">
+        <v>7025.85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>171</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1151</v>
+      </c>
+      <c r="L77" t="s">
+        <v>1298</v>
+      </c>
+      <c r="M77">
+        <v>5947</v>
+      </c>
+      <c r="N77">
+        <v>5040</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>453.6</v>
+      </c>
+      <c r="Q77">
+        <v>453.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>173</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L78" t="s">
+        <v>1299</v>
+      </c>
+      <c r="M78">
+        <v>2030</v>
+      </c>
+      <c r="N78">
+        <v>2030</v>
+      </c>
+      <c r="O78">
+        <v>101.5</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>126</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1072</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1141</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1300</v>
+      </c>
+      <c r="M79">
+        <v>680</v>
+      </c>
+      <c r="N79">
+        <v>576.3</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>51.87</v>
+      </c>
+      <c r="Q79">
+        <v>51.87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>128</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1301</v>
+      </c>
+      <c r="M80">
+        <v>360</v>
+      </c>
+      <c r="N80">
+        <v>305</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>27.45</v>
+      </c>
+      <c r="Q80">
+        <v>27.45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>128</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1302</v>
+      </c>
+      <c r="M81">
+        <v>1706</v>
+      </c>
+      <c r="N81">
+        <v>1446</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>130.14</v>
+      </c>
+      <c r="Q81">
+        <v>130.14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L82" t="s">
+        <v>1303</v>
+      </c>
+      <c r="M82">
+        <v>1770</v>
+      </c>
+      <c r="N82">
+        <v>1500</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>135</v>
+      </c>
+      <c r="Q82">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>174</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1152</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1076</v>
+      </c>
+      <c r="M83">
+        <v>1859</v>
+      </c>
+      <c r="N83">
+        <v>1575</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>141.75</v>
+      </c>
+      <c r="Q83">
+        <v>141.75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>136</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>640</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L84" t="s">
+        <v>640</v>
+      </c>
+      <c r="M84">
+        <v>5735</v>
+      </c>
+      <c r="N84">
+        <v>4860.2</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>437.4</v>
+      </c>
+      <c r="Q84">
+        <v>437.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>828</v>
+      </c>
+      <c r="K85" t="s">
+        <v>1107</v>
+      </c>
+      <c r="L85" t="s">
+        <v>1304</v>
+      </c>
+      <c r="M85">
+        <v>29500</v>
+      </c>
+      <c r="N85">
+        <v>25000</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>2250</v>
+      </c>
+      <c r="Q85">
+        <v>2250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/media/testSet2/mergedFile.xlsx
+++ b/media/testSet2/mergedFile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3984" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="1124">
   <si>
     <t>Particulars</t>
   </si>
@@ -40155,13 +40155,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -40186,32 +40186,8 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -40239,32 +40215,8 @@
       <c r="I2">
         <v>3781.98</v>
       </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -40292,32 +40244,8 @@
       <c r="I3">
         <v>160.52</v>
       </c>
-      <c r="J3">
-        <v>16</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -40345,32 +40273,8 @@
       <c r="I4">
         <v>146.58</v>
       </c>
-      <c r="J4">
-        <v>17</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -40398,32 +40302,8 @@
       <c r="I5">
         <v>546.16</v>
       </c>
-      <c r="J5">
-        <v>39</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -40451,32 +40331,8 @@
       <c r="I6">
         <v>7033.96</v>
       </c>
-      <c r="J6">
-        <v>1553</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -40504,32 +40360,8 @@
       <c r="I7">
         <v>81</v>
       </c>
-      <c r="J7">
-        <v>63</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -40557,32 +40389,8 @@
       <c r="I8">
         <v>102.6</v>
       </c>
-      <c r="J8">
-        <v>102</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -40610,32 +40418,8 @@
       <c r="I9">
         <v>3051.9</v>
       </c>
-      <c r="J9">
-        <v>12</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -40663,32 +40447,8 @@
       <c r="I10">
         <v>198.58</v>
       </c>
-      <c r="J10">
-        <v>61</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -40716,32 +40476,8 @@
       <c r="I11">
         <v>2451.6</v>
       </c>
-      <c r="J11">
-        <v>671</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -40769,32 +40505,8 @@
       <c r="I12">
         <v>741.8</v>
       </c>
-      <c r="J12">
-        <v>1626</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -40822,32 +40534,8 @@
       <c r="I13">
         <v>3585.24</v>
       </c>
-      <c r="J13">
-        <v>15</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -40875,32 +40563,8 @@
       <c r="I14">
         <v>874.8</v>
       </c>
-      <c r="J14">
-        <v>34</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -40928,32 +40592,8 @@
       <c r="I15">
         <v>1360.98</v>
       </c>
-      <c r="J15">
-        <v>50</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -40981,32 +40621,8 @@
       <c r="I16">
         <v>85.22</v>
       </c>
-      <c r="J16">
-        <v>88</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -41034,32 +40650,8 @@
       <c r="I17">
         <v>636.8200000000001</v>
       </c>
-      <c r="J17">
-        <v>89</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -41087,32 +40679,8 @@
       <c r="I18">
         <v>744.48</v>
       </c>
-      <c r="J18">
-        <v>1690</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -41140,32 +40708,8 @@
       <c r="I19">
         <v>91.8</v>
       </c>
-      <c r="J19">
-        <v>10143</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -41193,32 +40737,8 @@
       <c r="I20">
         <v>494.02</v>
       </c>
-      <c r="J20">
-        <v>12</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -41246,32 +40766,8 @@
       <c r="I21">
         <v>197.18</v>
       </c>
-      <c r="J21">
-        <v>113</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -41299,32 +40795,8 @@
       <c r="I22">
         <v>521.34</v>
       </c>
-      <c r="J22">
-        <v>114</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -41351,30 +40823,6 @@
       </c>
       <c r="I23">
         <v>1732963.11</v>
-      </c>
-      <c r="J23" t="s">
-        <v>609</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -41384,83 +40832,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>681</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1104</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>22054.2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>18690</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3364.2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -41468,52 +40892,28 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>411</v>
-      </c>
-      <c r="K2" t="s">
-        <v>681</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="M2">
-        <v>22054.2</v>
-      </c>
-      <c r="N2">
-        <v>18690</v>
-      </c>
-      <c r="O2">
-        <v>3364.2</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>682</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1105</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2501</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2501</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>125.05</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -41521,52 +40921,28 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>19000210</v>
-      </c>
-      <c r="K3" t="s">
-        <v>682</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1105</v>
-      </c>
-      <c r="M3">
-        <v>2501</v>
-      </c>
-      <c r="N3">
-        <v>2501</v>
-      </c>
-      <c r="O3">
-        <v>125.05</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>682</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1106</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1088</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1088</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -41574,370 +40950,202 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>19000542</v>
-      </c>
-      <c r="K4" t="s">
-        <v>682</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1106</v>
-      </c>
-      <c r="M4">
-        <v>1088</v>
-      </c>
-      <c r="N4">
-        <v>1088</v>
-      </c>
-      <c r="O4">
-        <v>54.4</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>617</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1107</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>24793</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>21011.08</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1891</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>617</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1107</v>
-      </c>
-      <c r="M5">
-        <v>24793</v>
-      </c>
-      <c r="N5">
-        <v>21011.08</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
         <v>1891</v>
       </c>
-      <c r="Q5">
-        <v>1891</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>614</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1108</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>24703</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>20935</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1884.15</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>508</v>
-      </c>
-      <c r="K6" t="s">
-        <v>614</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1108</v>
-      </c>
-      <c r="M6">
-        <v>24703</v>
-      </c>
-      <c r="N6">
-        <v>20935</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
         <v>1884.15</v>
       </c>
-      <c r="Q6">
-        <v>1884.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>683</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1109</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>46111</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>39077.5</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3516.98</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>786</v>
-      </c>
-      <c r="K7" t="s">
-        <v>683</v>
-      </c>
-      <c r="L7" t="s">
-        <v>1109</v>
-      </c>
-      <c r="M7">
-        <v>46111</v>
-      </c>
-      <c r="N7">
-        <v>39077.5</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
         <v>3516.98</v>
       </c>
-      <c r="Q7">
-        <v>3516.98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+        <v>683</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1110</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>4863</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>4121.15</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>370.9</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>786</v>
-      </c>
-      <c r="K8" t="s">
-        <v>683</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1110</v>
-      </c>
-      <c r="M8">
-        <v>4863</v>
-      </c>
-      <c r="N8">
-        <v>4121.15</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
         <v>370.9</v>
       </c>
-      <c r="Q8">
-        <v>370.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>683</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1111</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>4880</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>4136</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>372.24</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>786</v>
-      </c>
-      <c r="K9" t="s">
-        <v>683</v>
-      </c>
-      <c r="L9" t="s">
-        <v>1111</v>
-      </c>
-      <c r="M9">
-        <v>4880</v>
-      </c>
-      <c r="N9">
-        <v>4136</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
         <v>372.24</v>
       </c>
-      <c r="Q9">
-        <v>372.24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+        <v>611</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1112</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>7797</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>6607</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1496</v>
-      </c>
-      <c r="K10" t="s">
-        <v>611</v>
-      </c>
-      <c r="L10" t="s">
-        <v>1112</v>
-      </c>
-      <c r="M10">
-        <v>7797</v>
-      </c>
-      <c r="N10">
-        <v>6607</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
         <v>595</v>
       </c>
-      <c r="Q10">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
+        <v>682</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1113</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2825</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2825</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>141.25</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -41945,211 +41153,115 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>19001331</v>
-      </c>
-      <c r="K11" t="s">
-        <v>682</v>
-      </c>
-      <c r="L11" t="s">
-        <v>1113</v>
-      </c>
-      <c r="M11">
-        <v>2825</v>
-      </c>
-      <c r="N11">
-        <v>2825</v>
-      </c>
-      <c r="O11">
-        <v>141.25</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
+        <v>643</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1114</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>743</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>56.7</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>71</v>
-      </c>
-      <c r="K12" t="s">
-        <v>643</v>
-      </c>
-      <c r="L12" t="s">
-        <v>1114</v>
-      </c>
-      <c r="M12">
-        <v>743</v>
-      </c>
-      <c r="N12">
-        <v>630</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
         <v>56.7</v>
       </c>
-      <c r="Q12">
-        <v>56.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
+        <v>628</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1115</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>51.3</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>1012</v>
-      </c>
-      <c r="K13" t="s">
-        <v>628</v>
-      </c>
-      <c r="L13" t="s">
-        <v>1115</v>
-      </c>
-      <c r="M13">
-        <v>673</v>
-      </c>
-      <c r="N13">
-        <v>570</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
         <v>51.3</v>
       </c>
-      <c r="Q13">
-        <v>51.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
+        <v>614</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1116</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>16072</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>13620</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1225.8</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>670</v>
-      </c>
-      <c r="K14" t="s">
-        <v>614</v>
-      </c>
-      <c r="L14" t="s">
-        <v>1116</v>
-      </c>
-      <c r="M14">
-        <v>16072</v>
-      </c>
-      <c r="N14">
-        <v>13620</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
         <v>1225.8</v>
       </c>
-      <c r="Q14">
-        <v>1225.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
+        <v>682</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1117</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2272</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2272</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>113.6</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -42157,211 +41269,115 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>19002289</v>
-      </c>
-      <c r="K15" t="s">
-        <v>682</v>
-      </c>
-      <c r="L15" t="s">
-        <v>1117</v>
-      </c>
-      <c r="M15">
-        <v>2272</v>
-      </c>
-      <c r="N15">
-        <v>2272</v>
-      </c>
-      <c r="O15">
-        <v>113.6</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
+        <v>623</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1030</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>23503</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>19918</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1792.62</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>115</v>
-      </c>
-      <c r="K16" t="s">
-        <v>623</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M16">
-        <v>23503</v>
-      </c>
-      <c r="N16">
-        <v>19918</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
         <v>1792.62</v>
       </c>
-      <c r="Q16">
-        <v>1792.62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+        <v>684</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1118</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>684</v>
-      </c>
-      <c r="L17" t="s">
-        <v>1118</v>
-      </c>
-      <c r="M17">
-        <v>531</v>
-      </c>
-      <c r="N17">
-        <v>450</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
         <v>40.5</v>
       </c>
-      <c r="Q17">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
+        <v>617</v>
+      </c>
+      <c r="D18" t="s">
+        <v>255</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>8922</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>7561</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>680.49</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>51</v>
-      </c>
-      <c r="K18" t="s">
-        <v>617</v>
-      </c>
-      <c r="L18" t="s">
-        <v>255</v>
-      </c>
-      <c r="M18">
-        <v>8922</v>
-      </c>
-      <c r="N18">
-        <v>7561</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
         <v>680.49</v>
       </c>
-      <c r="Q18">
-        <v>680.49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
+        <v>682</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1119</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>101.5</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -42369,187 +41385,91 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>19002685</v>
-      </c>
-      <c r="K19" t="s">
-        <v>682</v>
-      </c>
-      <c r="L19" t="s">
-        <v>1119</v>
-      </c>
-      <c r="M19">
-        <v>2030</v>
-      </c>
-      <c r="N19">
-        <v>2030</v>
-      </c>
-      <c r="O19">
-        <v>101.5</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>174</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
+        <v>685</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1120</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1859</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1575</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>141.75</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>2212</v>
-      </c>
-      <c r="K20" t="s">
-        <v>685</v>
-      </c>
-      <c r="L20" t="s">
-        <v>1120</v>
-      </c>
-      <c r="M20">
-        <v>1859</v>
-      </c>
-      <c r="N20">
-        <v>1575</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
         <v>141.75</v>
       </c>
-      <c r="Q20">
-        <v>141.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>136</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
+        <v>651</v>
+      </c>
+      <c r="D21" t="s">
+        <v>730</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>5735</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>4860.2</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>437.4</v>
       </c>
       <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>94</v>
-      </c>
-      <c r="K21" t="s">
-        <v>651</v>
-      </c>
-      <c r="L21" t="s">
-        <v>730</v>
-      </c>
-      <c r="M21">
-        <v>5735</v>
-      </c>
-      <c r="N21">
-        <v>4860.2</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
         <v>437.4</v>
       </c>
-      <c r="Q21">
-        <v>437.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
+        <v>650</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1121</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>29500</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>67</v>
-      </c>
-      <c r="K22" t="s">
-        <v>650</v>
-      </c>
-      <c r="L22" t="s">
-        <v>1121</v>
-      </c>
-      <c r="M22">
-        <v>29500</v>
-      </c>
-      <c r="N22">
-        <v>25000</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>2250</v>
-      </c>
-      <c r="Q22">
         <v>2250</v>
       </c>
     </row>
